--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,14 +247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30817809931775592</v>
+        <v>0.30772807106524996</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31888294958299429</v>
+        <v>0.31847139885970338</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0096976129432323373</v>
+        <v>0.009726066265945011</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00011445664359865834</v>
+        <v>0.00011512948610463593</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00018578597432437815</v>
+        <v>-0.00019105368180970554</v>
       </c>
       <c r="G3" s="0">
-        <v>0.001258810005972505</v>
+        <v>0.0012638823234799462</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00010940760605802232</v>
+        <v>-0.00010930112311942647</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00017397014750080201</v>
+        <v>-0.00016452916455446861</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0001031344003180612</v>
+        <v>0.00010313368840741965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29695479476834857</v>
+        <v>0.29491458776309087</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0057178028801863554</v>
+        <v>-0.0073884054735758355</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-8.5313551498995941e-05</v>
+        <v>-8.5061338317436082e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00037836969631145558</v>
+        <v>-0.0003765189589069301</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00029128040094414891</v>
+        <v>-0.00029075739870975911</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.014189191211190513</v>
+        <v>-0.014164533544282477</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00099262812427518233</v>
+        <v>-0.00097796870364879706</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00027356895023905592</v>
+        <v>-0.00027356567917125041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33310883616028114</v>
+        <v>0.33320198963407849</v>
       </c>
       <c r="C5" s="0">
-        <v>0.041138067939073222</v>
+        <v>0.043374822032016369</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0013182233658113453</v>
+        <v>0.0012266331878305052</v>
       </c>
       <c r="E5" s="0">
-        <v>6.3283429613205576e-05</v>
+        <v>5.4659374919747571e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00035736255286359704</v>
+        <v>0.00034998010258263716</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015660424469942742</v>
+        <v>-0.0015671520173489756</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00039323723343990868</v>
+        <v>-0.00039483542636892049</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0049238792951236217</v>
+        <v>-0.0049169615368508876</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00016026308012900836</v>
+        <v>0.00016025615420711681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.61455407930529082</v>
+        <v>0.61734413064809135</v>
       </c>
       <c r="C6" s="0">
-        <v>0.30457742200965054</v>
+        <v>0.30756980531686628</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00010166689914040906</v>
+        <v>0.00010167181955926962</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00076980190861835425</v>
+        <v>0.00077183505623292458</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.0001347258653697267</v>
+        <v>-0.00012767888887290998</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0267850058477625</v>
+        <v>-0.027089523327448052</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0029160840407325694</v>
+        <v>0.0029160310376753484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.55363192525283889</v>
+        <v>0.55546892447212204</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.068662070875990189</v>
+        <v>-0.069488204523103531</v>
       </c>
       <c r="E7" s="0">
-        <v>-5.6155330065910591e-06</v>
+        <v>-2.0767087092853857e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0032242328610965561</v>
+        <v>-0.0033255933602265434</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0085502988862576519</v>
+        <v>0.0085462822723496781</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0030980210472227811</v>
+        <v>0.0030916082536977365</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00067855471583899707</v>
+        <v>-0.0006785317315938233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.56643586643413102</v>
+        <v>0.56663480055638793</v>
       </c>
       <c r="C8" s="0">
-        <v>0.052722177437923692</v>
+        <v>0.050826187736764977</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00019650654034972047</v>
+        <v>0.00019638827011087863</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.012378023515796416</v>
+        <v>-0.012385753190251597</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00077364298416273899</v>
+        <v>-0.00077261678232178911</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.034605190297797156</v>
+        <v>-0.034340517716496655</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0076421140007750799</v>
+        <v>0.0076421877664600846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11764849399501143</v>
+        <v>0.11597676924464881</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.30886067676147061</v>
+        <v>-0.30994738914408965</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0053634111784853413</v>
+        <v>-0.0054381667670066452</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.13424106991074536</v>
+        <v>-0.13491102601873015</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.011528398968112228</v>
+        <v>-0.011553636889168752</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0021077693048331759</v>
+        <v>-0.0021166867756976706</v>
       </c>
       <c r="I9" s="0">
-        <v>0.012728037495617212</v>
+        <v>0.012722945646474356</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00058591618890990738</v>
+        <v>0.00058592863647943805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.13143859253610665</v>
+        <v>0.13361113710843997</v>
       </c>
       <c r="C10" s="0">
-        <v>0.015900857780277208</v>
+        <v>0.01992998162094068</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00045322802897521846</v>
+        <v>-0.00045324870409478438</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0015724968646366562</v>
+        <v>0.0015372809472543793</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.00032850141399427227</v>
+        <v>0.0003305213294890289</v>
       </c>
       <c r="I10" s="0">
-        <v>0.021307697313182817</v>
+        <v>0.02108615174898567</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.023216044131849228</v>
+        <v>-0.023146266548778691</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0016501826701712796</v>
+        <v>-0.0016500525300051222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.44004361544585202</v>
+        <v>0.44477962946062544</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.27511178508222545</v>
+        <v>0.2761583840906835</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0061908209390200471</v>
+        <v>-0.0060434815147737062</v>
       </c>
       <c r="F11" s="0">
-        <v>0.013833202576921713</v>
+        <v>0.014954540765309427</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0067432461854862171</v>
+        <v>-0.0067319619326546877</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0062134128485120364</v>
+        <v>-0.0061893894160269672</v>
       </c>
       <c r="I11" s="0">
-        <v>0.090452875992855689</v>
+        <v>0.09066576323380128</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.051645360769239174</v>
+        <v>-0.051645362874153389</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.21532128703895853</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.16089031005936275</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00083857784619369028</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0019084763498543732</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.0019881120624884799</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.046208053274959734</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.019301968521195256</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30772807106524996</v>
+        <v>0.30740171679945677</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31847139885970338</v>
+        <v>0.31828445477427852</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.009726066265945011</v>
+        <v>0.0098085128280393109</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00011512948610463593</v>
+        <v>0.00011474317985815775</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00019105368180970554</v>
+        <v>-0.00018568062446628632</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0012638823234799462</v>
+        <v>0.0012850203679863974</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00010930112311942647</v>
+        <v>-0.00010926611556030572</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00016452916455446861</v>
+        <v>-0.00013372300359344984</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00010313368840741965</v>
+        <v>0.00010313134255790501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29491458776309087</v>
+        <v>0.29484952667998654</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0073884054735758355</v>
+        <v>-0.0072883374993908748</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-8.5061338317436082e-05</v>
+        <v>-8.5123259551319515e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0003765189589069301</v>
+        <v>-0.00037437467030272946</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00029075739870975911</v>
+        <v>-0.00027883574165127204</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.014164533544282477</v>
+        <v>-0.014168880271536406</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00097796870364879706</v>
+        <v>-0.00096576965619766305</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00027356567917125041</v>
+        <v>-0.00027360699566170155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33320198963407849</v>
+        <v>0.33129517006747972</v>
       </c>
       <c r="C5" s="0">
-        <v>0.043374822032016369</v>
+        <v>0.041384930929982765</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0012266331878305052</v>
+        <v>0.0013177294446140716</v>
       </c>
       <c r="E5" s="0">
-        <v>5.4659374919747571e-05</v>
+        <v>7.1295894224433922e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00034998010258263716</v>
+        <v>0.00038118866110486445</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015671520173489756</v>
+        <v>-0.0015738694724847448</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00039483542636892049</v>
+        <v>-0.00039030606964622692</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0049169615368508876</v>
+        <v>-0.0049056038375453522</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00016025615420711681</v>
+        <v>0.00016027783724337219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.61734413064809135</v>
+        <v>0.61909467188518152</v>
       </c>
       <c r="C6" s="0">
-        <v>0.30756980531686628</v>
+        <v>0.3113522901454655</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00010167181955926962</v>
+        <v>0.00010171269297120461</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00077183505623292458</v>
+        <v>0.00077981764988600474</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00012767888887290998</v>
+        <v>-0.00011643234495306818</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.027089523327448052</v>
+        <v>-0.027233902418445401</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0029160310376753484</v>
+        <v>0.0029160160927775847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.55546892447212204</v>
+        <v>0.55831211914369794</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.069488204523103531</v>
+        <v>-0.068386020337551201</v>
       </c>
       <c r="E7" s="0">
-        <v>-2.0767087092853857e-05</v>
+        <v>-3.0134818206034006e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0033255933602265434</v>
+        <v>-0.0033733553692803773</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0085462822723496781</v>
+        <v>0.0085854661209228498</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0030916082536977365</v>
+        <v>0.0031000474361714786</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0006785317315938233</v>
+        <v>-0.00067855577354025698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.56663480055638793</v>
+        <v>0.55482331978731181</v>
       </c>
       <c r="C8" s="0">
-        <v>0.050826187736764977</v>
+        <v>0.035496646541159846</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00019638827011087863</v>
+        <v>0.0001961515397210341</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.012385753190251597</v>
+        <v>-0.012344866798456507</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00077261678232178911</v>
+        <v>-0.00076015713440215175</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.034340517716496655</v>
+        <v>-0.033718857898122706</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0076421877664600846</v>
+        <v>0.0076422843937143936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11597676924464881</v>
+        <v>0.10663332758485777</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.30994738914408965</v>
+        <v>-0.30715771355272264</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0054381667670066452</v>
+        <v>-0.0054983645476718215</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.13491102601873015</v>
+        <v>-0.13528260540859788</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.011553636889168752</v>
+        <v>-0.011487689920714163</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0021166867756976706</v>
+        <v>-0.0020804297680658808</v>
       </c>
       <c r="I9" s="0">
-        <v>0.012722945646474356</v>
+        <v>0.012730962282241376</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00058592863647943805</v>
+        <v>0.00058584871307698627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.13361113710843997</v>
+        <v>0.12383030010841023</v>
       </c>
       <c r="C10" s="0">
-        <v>0.01992998162094068</v>
+        <v>0.018741824928404149</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00045324870409478438</v>
+        <v>-0.00045267693034968878</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0015372809472543793</v>
+        <v>0.0016564625209566639</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.0003305213294890289</v>
+        <v>0.00033938700438354043</v>
       </c>
       <c r="I10" s="0">
-        <v>0.02108615174898567</v>
+        <v>0.021316393386082745</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.023146266548778691</v>
+        <v>-0.022754319403002553</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0016500525300051222</v>
+        <v>-0.0016500989829223989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.44477962946062544</v>
+        <v>0.44158609425731515</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.2761583840906835</v>
+        <v>0.27972631174350682</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0060434815147737062</v>
+        <v>-0.0058308746131853842</v>
       </c>
       <c r="F11" s="0">
-        <v>0.014954540765309427</v>
+        <v>0.016774092573046198</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0067319619326546877</v>
+        <v>-0.0066540361221450002</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0061893894160269672</v>
+        <v>-0.0061318719733164176</v>
       </c>
       <c r="I11" s="0">
-        <v>0.09066576323380128</v>
+        <v>0.091517586656922376</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.051645362874153389</v>
+        <v>-0.05164541411592366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.21532128703895853</v>
+        <v>0.17341680823437955</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.16089031005936275</v>
+        <v>-0.19250364352022381</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00083857784619369028</v>
+        <v>0.000778368584454539</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0019084763498543732</v>
+        <v>-0.032183305793827346</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.0019881120624884799</v>
+        <v>-0.011498077422079745</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.046208053274959734</v>
+        <v>-0.014523103987119746</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.019301968521195256</v>
+        <v>-0.018239523884139464</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.31618219015937743</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.20504529563371274</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.014371012575978007</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.078933855533982702</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.002756609365770294</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0029670814766987632</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0063859035758917293</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.27665145891388571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.28646726847226989</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.047307502583767147</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00107528172508306</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.016944100716645562</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.0096160713738517867</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.049051651234419125</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00033531922087515209</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.30740171679945677</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31828445477427852</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29484952667998654</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.33129517006747972</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.61909467188518152</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.55831211914369794</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.55482331978731181</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.10663332758485777</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.12383030010841023</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.44158609425731515</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.17341680823437955</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.31618219015937743</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.28646726847226989</v>
+        <v>0.31648473730376675</v>
       </c>
       <c r="C14" s="0">
-        <v>0.047307502583767147</v>
+        <v>0.06480229926385539</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00107528172508306</v>
+        <v>-0.0010649667863798689</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.016944100716645562</v>
+        <v>-0.017767794446920247</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.0096160713738517867</v>
+        <v>-0.014957147080930652</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.049051651234419125</v>
+        <v>-0.015711641941623229</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00033531922087515209</v>
+        <v>-0.01499820186361206</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.18016421622569417</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.31894467351408462</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.033863947850689122</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.038244366054442078</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0057699915954443322</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.18785468981457359</v>
       </c>
     </row>
   </sheetData>
